--- a/Teste.xlsx
+++ b/Teste.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,16 +474,23 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>S3</t>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>S4</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>S3</t>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>S4</t>
         </is>
       </c>
     </row>
